--- a/attendance_oct_nov_jan_nsu_brac_aiub/AIUB_ATTENDANCE/attendance_aiub_batchB_dec_15.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/AIUB_ATTENDANCE/attendance_aiub_batchB_dec_15.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AIUB_BATCH_B_dec_15!$A$9:$M$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="605">
   <si>
     <t>S No</t>
   </si>
@@ -1892,12 +1892,15 @@
   </si>
   <si>
     <t>28/12/2015</t>
+  </si>
+  <si>
+    <t>rrrrrr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
@@ -3328,6 +3331,57 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3346,15 +3400,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,51 +3437,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3586,7 +3589,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3621,7 +3623,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3797,7 +3798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
@@ -3837,18 +3838,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="185"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3856,10 +3857,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="210"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3868,13 +3869,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3927,22 +3928,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="179" t="s">
+      <c r="X6" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="197" t="s">
+      <c r="Y6" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="182" t="s">
+      <c r="Z6" s="199" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="212"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -3997,16 +3998,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="183"/>
+      <c r="X7" s="197"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="200"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4061,9 +4062,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="180"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="183"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="213"/>
+      <c r="Z8" s="200"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4135,9 +4136,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="199"/>
-      <c r="Z9" s="184"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="214"/>
+      <c r="Z9" s="201"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6810,15 +6811,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="200"/>
-      <c r="B46" s="201"/>
-      <c r="C46" s="191" t="s">
+      <c r="A46" s="179"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="192"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="193"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="207"/>
+      <c r="G46" s="208"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6883,25 +6884,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="185" t="s">
+      <c r="X46" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="186"/>
-      <c r="Z46" s="189">
+      <c r="Y46" s="202"/>
+      <c r="Z46" s="204">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="202"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="194" t="s">
+      <c r="A47" s="181"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="195"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="196"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="210"/>
+      <c r="F47" s="210"/>
+      <c r="G47" s="211"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -6966,9 +6967,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="187"/>
-      <c r="Y47" s="188"/>
-      <c r="Z47" s="190"/>
+      <c r="X47" s="194"/>
+      <c r="Y47" s="203"/>
+      <c r="Z47" s="205"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7169,11 +7170,6 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7181,6 +7177,11 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7236,7 +7237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -7270,18 +7271,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="185"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7289,10 +7290,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="210"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7301,13 +7302,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7342,22 +7343,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="179" t="s">
+      <c r="R6" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="197" t="s">
+      <c r="S6" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="182" t="s">
+      <c r="T6" s="199" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="212"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7394,16 +7395,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="180"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="183"/>
+      <c r="R7" s="197"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="200"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7440,9 +7441,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="180"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="183"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="213"/>
+      <c r="T8" s="200"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7496,9 +7497,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="181"/>
-      <c r="S9" s="199"/>
-      <c r="T9" s="184"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="214"/>
+      <c r="T9" s="201"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10396,13 +10397,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="215"/>
       <c r="B59" s="216"/>
-      <c r="C59" s="191" t="s">
+      <c r="C59" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="192"/>
-      <c r="E59" s="192"/>
-      <c r="F59" s="192"/>
-      <c r="G59" s="193"/>
+      <c r="D59" s="207"/>
+      <c r="E59" s="207"/>
+      <c r="F59" s="207"/>
+      <c r="G59" s="208"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10443,25 +10444,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="185" t="s">
+      <c r="R59" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="186"/>
-      <c r="T59" s="189">
+      <c r="S59" s="202"/>
+      <c r="T59" s="204">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="202"/>
-      <c r="B60" s="203"/>
-      <c r="C60" s="194" t="s">
+      <c r="A60" s="181"/>
+      <c r="B60" s="182"/>
+      <c r="C60" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="195"/>
-      <c r="E60" s="195"/>
-      <c r="F60" s="195"/>
-      <c r="G60" s="196"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="210"/>
+      <c r="F60" s="210"/>
+      <c r="G60" s="211"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10502,17 +10503,12 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="187"/>
-      <c r="S60" s="188"/>
-      <c r="T60" s="190"/>
+      <c r="R60" s="194"/>
+      <c r="S60" s="203"/>
+      <c r="T60" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10520,6 +10516,11 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10592,7 +10593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10629,18 +10630,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="185"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10648,10 +10649,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="210"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10660,13 +10661,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10698,22 +10699,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="179" t="s">
+      <c r="W6" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="197" t="s">
+      <c r="X6" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="182" t="s">
+      <c r="Y6" s="199" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="212"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10747,16 +10748,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="183"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="200"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10790,9 +10791,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="180"/>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="183"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="213"/>
+      <c r="Y8" s="200"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10861,9 +10862,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="181"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="184"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="201"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13283,15 +13284,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="200"/>
-      <c r="B55" s="201"/>
-      <c r="C55" s="191" t="s">
+      <c r="A55" s="179"/>
+      <c r="B55" s="180"/>
+      <c r="C55" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="192"/>
-      <c r="E55" s="192"/>
-      <c r="F55" s="192"/>
-      <c r="G55" s="192"/>
+      <c r="D55" s="207"/>
+      <c r="E55" s="207"/>
+      <c r="F55" s="207"/>
+      <c r="G55" s="207"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13352,25 +13353,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="185" t="s">
+      <c r="W55" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="186"/>
-      <c r="Y55" s="189">
+      <c r="X55" s="202"/>
+      <c r="Y55" s="204">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="202"/>
-      <c r="B56" s="203"/>
-      <c r="C56" s="194" t="s">
+      <c r="A56" s="181"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="195"/>
-      <c r="E56" s="195"/>
-      <c r="F56" s="195"/>
-      <c r="G56" s="195"/>
+      <c r="D56" s="210"/>
+      <c r="E56" s="210"/>
+      <c r="F56" s="210"/>
+      <c r="G56" s="210"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13431,17 +13432,12 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="187"/>
-      <c r="X56" s="188"/>
-      <c r="Y56" s="190"/>
+      <c r="W56" s="194"/>
+      <c r="X56" s="203"/>
+      <c r="Y56" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13449,6 +13445,11 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13501,7 +13502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13538,18 +13539,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="185"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="208"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13557,10 +13558,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="210"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13569,13 +13570,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13599,22 +13600,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="179" t="s">
+      <c r="W6" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="197" t="s">
+      <c r="X6" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="182" t="s">
+      <c r="Y6" s="199" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="212"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13640,16 +13641,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="183"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="200"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13675,9 +13676,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="180"/>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="183"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="213"/>
+      <c r="Y8" s="200"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13746,9 +13747,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="181"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="184"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="201"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15637,13 +15638,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="J50" sqref="J50"/>
+      <selection pane="topRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17303,7 +17304,9 @@
       <c r="B50" s="159"/>
       <c r="C50" s="148"/>
       <c r="D50" s="146"/>
-      <c r="E50" s="143"/>
+      <c r="E50" s="143" t="s">
+        <v>594</v>
+      </c>
       <c r="F50" s="143"/>
       <c r="G50" s="20"/>
       <c r="H50" s="145"/>
@@ -17354,6 +17357,11 @@
       <c r="M51" s="157">
         <f>AVERAGE(M10:M50)</f>
         <v>75.609756097560975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="G53" s="77" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
